--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H2">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I2">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J2">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>130.5238413072771</v>
+        <v>448.3796259284277</v>
       </c>
       <c r="R2">
-        <v>130.5238413072771</v>
+        <v>4035.416633355849</v>
       </c>
       <c r="S2">
-        <v>0.001323779006052685</v>
+        <v>0.002796720942854032</v>
       </c>
       <c r="T2">
-        <v>0.001323779006052685</v>
+        <v>0.003094720167287711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H3">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I3">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J3">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>146.1823952611791</v>
+        <v>479.8307830999634</v>
       </c>
       <c r="R3">
-        <v>146.1823952611791</v>
+        <v>4318.477047899671</v>
       </c>
       <c r="S3">
-        <v>0.001482588804950038</v>
+        <v>0.002992894240774282</v>
       </c>
       <c r="T3">
-        <v>0.001482588804950038</v>
+        <v>0.003311796333899314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H4">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I4">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J4">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>75.20688958777143</v>
+        <v>240.9387118742129</v>
       </c>
       <c r="R4">
-        <v>75.20688958777143</v>
+        <v>2168.448406867916</v>
       </c>
       <c r="S4">
-        <v>0.0007627518509238317</v>
+        <v>0.001502829973702788</v>
       </c>
       <c r="T4">
-        <v>0.0007627518509238317</v>
+        <v>0.001662961132931745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H5">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I5">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J5">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>89.47505028528077</v>
+        <v>275.2740625560349</v>
       </c>
       <c r="R5">
-        <v>89.47505028528077</v>
+        <v>2477.466563004314</v>
       </c>
       <c r="S5">
-        <v>0.0009074602152898737</v>
+        <v>0.001716993126484884</v>
       </c>
       <c r="T5">
-        <v>0.0009074602152898737</v>
+        <v>0.001899944028811344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H6">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I6">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J6">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>176.5561232500054</v>
+        <v>549.0629937492007</v>
       </c>
       <c r="R6">
-        <v>176.5561232500054</v>
+        <v>3294.377962495204</v>
       </c>
       <c r="S6">
-        <v>0.001790640598740767</v>
+        <v>0.003424722901681615</v>
       </c>
       <c r="T6">
-        <v>0.001790640598740767</v>
+        <v>0.002526425111828864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H7">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J7">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>17309.53965364872</v>
+        <v>20239.57431890986</v>
       </c>
       <c r="R7">
-        <v>17309.53965364872</v>
+        <v>182156.1688701888</v>
       </c>
       <c r="S7">
-        <v>0.1755541743825396</v>
+        <v>0.1262422244430466</v>
       </c>
       <c r="T7">
-        <v>0.1755541743825396</v>
+        <v>0.1396937220159219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H8">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J8">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>19386.11323491333</v>
+        <v>21659.25977333018</v>
       </c>
       <c r="R8">
-        <v>19386.11323491333</v>
+        <v>194933.3379599717</v>
       </c>
       <c r="S8">
-        <v>0.1966148824023889</v>
+        <v>0.1350973637336002</v>
       </c>
       <c r="T8">
-        <v>0.1966148824023889</v>
+        <v>0.1494924036529437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H9">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J9">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>9973.631058577588</v>
+        <v>10875.82192251294</v>
       </c>
       <c r="R9">
-        <v>9973.631058577588</v>
+        <v>97882.39730261643</v>
       </c>
       <c r="S9">
-        <v>0.1011530405267342</v>
+        <v>0.06783679985115597</v>
       </c>
       <c r="T9">
-        <v>0.1011530405267342</v>
+        <v>0.0750650196688535</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H10">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J10">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>11865.81635518363</v>
+        <v>12425.69805805683</v>
       </c>
       <c r="R10">
-        <v>11865.81635518363</v>
+        <v>111831.2825225115</v>
       </c>
       <c r="S10">
-        <v>0.1203436737943517</v>
+        <v>0.07750398987597031</v>
       </c>
       <c r="T10">
-        <v>0.1203436737943517</v>
+        <v>0.08576227854526654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>139.882835853992</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H11">
-        <v>139.882835853992</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I11">
-        <v>0.8311332263915838</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J11">
-        <v>0.8311332263915838</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>23414.15319899931</v>
+        <v>24784.3582204245</v>
       </c>
       <c r="R11">
-        <v>23414.15319899931</v>
+        <v>148706.149322547</v>
       </c>
       <c r="S11">
-        <v>0.2374674552855695</v>
+        <v>0.1545898379007124</v>
       </c>
       <c r="T11">
-        <v>0.2374674552855695</v>
+        <v>0.1140412406253773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H12">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I12">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J12">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>306.5370577324092</v>
+        <v>824.8085237451048</v>
       </c>
       <c r="R12">
-        <v>306.5370577324092</v>
+        <v>7423.276713705945</v>
       </c>
       <c r="S12">
-        <v>0.003108913417955768</v>
+        <v>0.005144656756930046</v>
       </c>
       <c r="T12">
-        <v>0.003108913417955768</v>
+        <v>0.005692835769019155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H13">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I13">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J13">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>343.3113896038824</v>
+        <v>882.6639235372231</v>
       </c>
       <c r="R13">
-        <v>343.3113896038824</v>
+        <v>7943.975311835009</v>
       </c>
       <c r="S13">
-        <v>0.003481880440727233</v>
+        <v>0.005505523751992035</v>
       </c>
       <c r="T13">
-        <v>0.003481880440727233</v>
+        <v>0.006092154253110451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H14">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I14">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J14">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>176.624426806203</v>
+        <v>443.2143919173942</v>
       </c>
       <c r="R14">
-        <v>176.624426806203</v>
+        <v>3988.929527256548</v>
       </c>
       <c r="S14">
-        <v>0.001791333336656135</v>
+        <v>0.002764503336838844</v>
       </c>
       <c r="T14">
-        <v>0.001791333336656135</v>
+        <v>0.003059069676189667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H15">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I15">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J15">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>210.1334007657663</v>
+        <v>506.3753570248155</v>
       </c>
       <c r="R15">
-        <v>210.1334007657663</v>
+        <v>4557.378213223339</v>
       </c>
       <c r="S15">
-        <v>0.002131182944189582</v>
+        <v>0.003158463239724786</v>
       </c>
       <c r="T15">
-        <v>0.002131182944189582</v>
+        <v>0.003495007219289571</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.47720469682795</v>
+        <v>5.967399666666666</v>
       </c>
       <c r="H16">
-        <v>2.47720469682795</v>
+        <v>17.902199</v>
       </c>
       <c r="I16">
-        <v>0.01471865450494613</v>
+        <v>0.02287303333683595</v>
       </c>
       <c r="J16">
-        <v>0.01471865450494613</v>
+        <v>0.0229865059320942</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>414.6445124786552</v>
+        <v>1010.018767868002</v>
       </c>
       <c r="R16">
-        <v>414.6445124786552</v>
+        <v>6060.11260720801</v>
       </c>
       <c r="S16">
-        <v>0.004205344365417412</v>
+        <v>0.006299886251350239</v>
       </c>
       <c r="T16">
-        <v>0.004205344365417412</v>
+        <v>0.004647439014485361</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H17">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I17">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J17">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>2681.640272003574</v>
+        <v>14013.50732261909</v>
       </c>
       <c r="R17">
-        <v>2681.640272003574</v>
+        <v>126121.5659035718</v>
       </c>
       <c r="S17">
-        <v>0.02719732317337051</v>
+        <v>0.08740778381902463</v>
       </c>
       <c r="T17">
-        <v>0.02719732317337051</v>
+        <v>0.09672135221564659</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H18">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I18">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J18">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>3003.348616345592</v>
+        <v>14996.47130189345</v>
       </c>
       <c r="R18">
-        <v>3003.348616345592</v>
+        <v>134968.2417170411</v>
       </c>
       <c r="S18">
-        <v>0.03046010450164412</v>
+        <v>0.09353891866087977</v>
       </c>
       <c r="T18">
-        <v>0.03046010450164412</v>
+        <v>0.1035057783458012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H19">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I19">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J19">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>1545.141652519309</v>
+        <v>7530.218163147869</v>
       </c>
       <c r="R19">
-        <v>1545.141652519309</v>
+        <v>67771.96346833082</v>
       </c>
       <c r="S19">
-        <v>0.01567090012442482</v>
+        <v>0.04696894689969063</v>
       </c>
       <c r="T19">
-        <v>0.01567090012442482</v>
+        <v>0.05197363275665387</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H20">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I20">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J20">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>1838.284069648941</v>
+        <v>8603.323764697237</v>
       </c>
       <c r="R20">
-        <v>1838.284069648941</v>
+        <v>77429.91388227514</v>
       </c>
       <c r="S20">
-        <v>0.01864396446035859</v>
+        <v>0.05366233066692307</v>
       </c>
       <c r="T20">
-        <v>0.01864396446035859</v>
+        <v>0.05938021716571966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.6710238107955</v>
+        <v>101.3861963333333</v>
       </c>
       <c r="H21">
-        <v>21.6710238107955</v>
+        <v>304.158589</v>
       </c>
       <c r="I21">
-        <v>0.1287613868357337</v>
+        <v>0.388613127687944</v>
       </c>
       <c r="J21">
-        <v>0.1287613868357337</v>
+        <v>0.3905410285264901</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>3627.383362564616</v>
+        <v>17160.23172897642</v>
       </c>
       <c r="R21">
-        <v>3627.383362564616</v>
+        <v>102961.3903738585</v>
       </c>
       <c r="S21">
-        <v>0.03678909457593564</v>
+        <v>0.107035147641426</v>
       </c>
       <c r="T21">
-        <v>0.03678909457593564</v>
+        <v>0.07896004804266885</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H22">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I22">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J22">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>398.1912129238862</v>
+        <v>534.0336936348094</v>
       </c>
       <c r="R22">
-        <v>398.1912129238862</v>
+        <v>3204.202161808857</v>
       </c>
       <c r="S22">
-        <v>0.004038474218839181</v>
+        <v>0.003330979216742046</v>
       </c>
       <c r="T22">
-        <v>0.004038474218839181</v>
+        <v>0.002457270203094376</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H23">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I23">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J23">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>445.9610190304946</v>
+        <v>571.4929729199149</v>
       </c>
       <c r="R23">
-        <v>445.9610190304946</v>
+        <v>3428.95783751949</v>
       </c>
       <c r="S23">
-        <v>0.004522957864231326</v>
+        <v>0.003564627546913042</v>
       </c>
       <c r="T23">
-        <v>0.004522957864231326</v>
+        <v>0.002629633055689265</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H24">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I24">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J24">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>229.4348854987145</v>
+        <v>286.9652919116754</v>
       </c>
       <c r="R24">
-        <v>229.4348854987145</v>
+        <v>1721.791751470052</v>
       </c>
       <c r="S24">
-        <v>0.002326939520300238</v>
+        <v>0.001789915944775135</v>
       </c>
       <c r="T24">
-        <v>0.002326939520300238</v>
+        <v>0.001320424665225423</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H25">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I25">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J25">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>272.9629962057766</v>
+        <v>327.8597328865353</v>
       </c>
       <c r="R25">
-        <v>272.9629962057766</v>
+        <v>1967.158397319211</v>
       </c>
       <c r="S25">
-        <v>0.002768403689221639</v>
+        <v>0.002044990736105986</v>
       </c>
       <c r="T25">
-        <v>0.002768403689221639</v>
+        <v>0.001508593862183326</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.21788546607551</v>
+        <v>3.8636755</v>
       </c>
       <c r="H26">
-        <v>3.21788546607551</v>
+        <v>7.727351000000001</v>
       </c>
       <c r="I26">
-        <v>0.01911951179177927</v>
+        <v>0.01480946198523706</v>
       </c>
       <c r="J26">
-        <v>0.01911951179177927</v>
+        <v>0.00992195425829386</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>538.6226467282127</v>
+        <v>653.9506294090104</v>
       </c>
       <c r="R26">
-        <v>538.6226467282127</v>
+        <v>2615.802517636042</v>
       </c>
       <c r="S26">
-        <v>0.005462736499186886</v>
+        <v>0.004078948540700855</v>
       </c>
       <c r="T26">
-        <v>0.005462736499186886</v>
+        <v>0.00200603247210147</v>
       </c>
     </row>
   </sheetData>
